--- a/results/FrequencyTables/26775808_sgRNA-2.xlsx
+++ b/results/FrequencyTables/26775808_sgRNA-2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.98876404494382</v>
+        <v>0.980701754385965</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00701754385964912</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="E2">
-        <v>0.0337078651685393</v>
+        <v>0.0508771929824561</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="G2">
-        <v>0.0112359550561798</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H2">
-        <v>0.98876404494382</v>
+        <v>0.975438596491228</v>
       </c>
       <c r="I2">
-        <v>0.0112359550561798</v>
+        <v>0.0245614035087719</v>
       </c>
       <c r="J2">
-        <v>0.98876404494382</v>
+        <v>0.954385964912281</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0112359550561798</v>
+        <v>0.00350877192982456</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.998245614035088</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.996491228070175</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.921348314606742</v>
+        <v>0.894736842105263</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0491228070175439</v>
       </c>
       <c r="T2">
-        <v>0.0224719101123595</v>
+        <v>0.0614035087719298</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.994736842105263</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="X2">
-        <v>0.0337078651685393</v>
+        <v>0.0210526315789474</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="C3">
-        <v>0.0224719101123595</v>
+        <v>0.0245614035087719</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00350877192982456</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00350877192982456</v>
       </c>
       <c r="G3">
-        <v>0.98876404494382</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="I3">
-        <v>0.0224719101123595</v>
+        <v>0.012280701754386</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="L3">
-        <v>0.887640449438202</v>
+        <v>0.931578947368421</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.998245614035088</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00350877192982456</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="S3">
-        <v>0.943820224719101</v>
+        <v>0.936842105263158</v>
       </c>
       <c r="T3">
-        <v>0.966292134831461</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0224719101123595</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0112359550561798</v>
+        <v>0.00701754385964912</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,43 +613,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00350877192982456</v>
       </c>
       <c r="C4">
-        <v>0.0112359550561798</v>
+        <v>0.00701754385964912</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.966292134831461</v>
+        <v>0.942105263157895</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.989473684210526</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="I4">
-        <v>0.955056179775281</v>
+        <v>0.949122807017544</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0298245614035088</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0674157303370786</v>
+        <v>0.0140350877192982</v>
       </c>
       <c r="S4">
-        <v>0.0112359550561798</v>
+        <v>0.00350877192982456</v>
       </c>
       <c r="T4">
-        <v>0.0112359550561798</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="V4">
-        <v>0.97752808988764</v>
+        <v>0.984210526315789</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.996491228070175</v>
       </c>
       <c r="X4">
-        <v>0.955056179775281</v>
+        <v>0.968421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,46 +687,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0112359550561798</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="C5">
-        <v>0.966292134831461</v>
+        <v>0.96140350877193</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.987719298245614</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="H5">
-        <v>0.0112359550561798</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="I5">
-        <v>0.0112359550561798</v>
+        <v>0.0140350877192982</v>
       </c>
       <c r="J5">
-        <v>0.0112359550561798</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.112359550561798</v>
+        <v>0.0649122807017544</v>
       </c>
       <c r="M5">
-        <v>0.98876404494382</v>
+        <v>0.991228070175439</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -735,25 +735,25 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0112359550561798</v>
+        <v>0.00350877192982456</v>
       </c>
       <c r="S5">
-        <v>0.0449438202247191</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00701754385964912</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00526315789473684</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00175438596491228</v>
       </c>
     </row>
   </sheetData>
